--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone_user.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone_user.xlsx
@@ -62,10 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -156,16 +155,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -188,23 +187,22 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -212,1966 +210,1966 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>110001</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>110002</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>110003</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>110004</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>110005</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>110006</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>110007</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>110008</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>110009</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>110010</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>110011</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>110012</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>110013</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>110014</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>110015</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>110016</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>110017</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>110018</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>110019</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>110020</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>110021</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>110022</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>110023</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>110024</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>110025</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>110026</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>110027</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>110028</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>110029</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>110030</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>110031</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>110032</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>110033</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>110034</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>110035</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>110036</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>110037</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>110038</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>110039</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>110040</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>110041</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>110042</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>110043</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>110044</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>110045</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>110046</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>110047</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>110048</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>110049</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>110050</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>110051</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>110052</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>110053</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>110054</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>110055</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>110056</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>110057</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>110058</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>110059</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>110060</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>110061</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>110062</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>110063</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>110064</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>110065</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>110066</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>110067</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>110068</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>110069</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>110070</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>110071</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="0" t="s">
+      <c r="A73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>110072</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>110073</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>110074</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="A76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>110075</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="A77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>110076</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="A78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>110077</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>110078</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="0" t="s">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>110079</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="A81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>110080</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="0" t="s">
+      <c r="A82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>110081</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="0" t="s">
+      <c r="A83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>110082</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="0" t="s">
+      <c r="A84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>110083</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="0" t="s">
+      <c r="A85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>110084</v>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="A86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>110085</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="0" t="s">
+      <c r="A87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>110086</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="A88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>110087</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="A89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>110088</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="0" t="s">
+      <c r="A90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>110089</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="0" t="s">
+      <c r="A91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>110090</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="0" t="s">
+      <c r="A92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>110091</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="A93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>110092</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="A94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>110093</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="0" t="s">
+      <c r="A95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>110094</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="0" t="s">
+      <c r="A96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>110095</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="A97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>110096</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="A98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>110097</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="A99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>110098</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>110099</v>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="A101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>110100</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="A102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>110101</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="0" t="s">
+      <c r="A103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>110102</v>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="0" t="s">
+      <c r="A104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>110103</v>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="0" t="s">
+      <c r="A105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>110104</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="A106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>110105</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="A107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>110106</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="A108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>110107</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="0" t="s">
+      <c r="A109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>110108</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>110109</v>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="0" t="s">
+      <c r="A111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>110110</v>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>110111</v>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>110112</v>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>110113</v>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="A115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>110114</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="0" t="s">
+      <c r="A116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>110115</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="0" t="s">
+      <c r="A117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>110116</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="0" t="s">
+      <c r="A118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>110117</v>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="0" t="s">
+      <c r="A119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>110118</v>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="0" t="s">
+      <c r="A120" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>110119</v>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="0" t="s">
+      <c r="A121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>110120</v>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="A122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>110121</v>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="A123" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>110122</v>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>110123</v>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="0" t="s">
+      <c r="A125" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>110124</v>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="0" t="s">
+      <c r="A126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>110125</v>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="0" t="s">
+      <c r="A127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>110126</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="0" t="s">
+      <c r="A128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>110127</v>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="0" t="s">
+      <c r="A129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>110128</v>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="0" t="s">
+      <c r="A130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>110129</v>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="0" t="s">
+      <c r="A131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>110130</v>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="0" t="s">
+      <c r="A132" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>110131</v>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone_user.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="13">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">NTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">RSK</t>
@@ -186,8 +189,8 @@
   </sheetPr>
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,9 +222,8 @@
       <c r="C2" s="1" t="n">
         <v>110001</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,9 +236,8 @@
       <c r="C3" s="1" t="n">
         <v>110002</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,9 +250,8 @@
       <c r="C4" s="1" t="n">
         <v>110003</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,14 +259,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>110004</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,14 +273,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>110005</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,14 +287,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>110006</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,9 +306,8 @@
       <c r="C8" s="1" t="n">
         <v>110007</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,14 +315,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>110008</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,14 +329,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>110009</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,14 +343,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>110010</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,14 +357,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>110011</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,14 +371,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>110012</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,14 +385,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>110013</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,14 +399,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>110014</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,14 +413,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>110015</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,14 +427,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>110016</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,14 +441,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>110017</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,14 +455,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>110018</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,14 +469,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>110019</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,14 +483,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>110020</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,9 +502,8 @@
       <c r="C22" s="1" t="n">
         <v>110021</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,9 +516,8 @@
       <c r="C23" s="1" t="n">
         <v>110022</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,14 +525,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>110023</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,9 +544,8 @@
       <c r="C25" s="1" t="n">
         <v>110024</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,14 +553,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>110025</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,9 +572,8 @@
       <c r="C27" s="1" t="n">
         <v>110026</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,14 +581,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>110027</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,14 +595,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>110028</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,14 +609,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>110029</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,9 +628,8 @@
       <c r="C31" s="1" t="n">
         <v>110030</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,9 +642,8 @@
       <c r="C32" s="1" t="n">
         <v>110031</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,9 +656,8 @@
       <c r="C33" s="1" t="n">
         <v>110032</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,14 +665,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>110033</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,14 +679,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>110034</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,14 +693,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>110035</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,14 +707,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>110036</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,14 +721,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>110037</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,14 +735,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>110038</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,14 +749,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>110039</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,14 +763,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>110040</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,14 +777,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>110041</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,14 +791,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>110042</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,14 +805,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>110043</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,14 +819,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>110044</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,14 +833,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>110045</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,14 +847,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>110046</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,14 +861,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>110047</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,14 +875,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>110048</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,14 +889,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>110049</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,14 +903,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>110050</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,14 +917,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>110051</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,14 +931,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>110052</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,14 +945,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>110053</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,14 +959,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>110054</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,14 +973,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>110055</v>
       </c>
-      <c r="D56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,14 +987,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>110056</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,14 +1001,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>110057</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,9 +1020,8 @@
       <c r="C59" s="1" t="n">
         <v>110058</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,9 +1034,8 @@
       <c r="C60" s="1" t="n">
         <v>110059</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,9 +1048,8 @@
       <c r="C61" s="1" t="n">
         <v>110060</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,9 +1062,8 @@
       <c r="C62" s="1" t="n">
         <v>110061</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,14 +1071,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>110062</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,14 +1085,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>110063</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,14 +1099,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>110064</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,14 +1113,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>110065</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,14 +1127,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>110066</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,14 +1141,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>110067</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D68" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,14 +1155,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>110068</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,14 +1169,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>110069</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,14 +1183,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>110070</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,14 +1197,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>110071</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,14 +1211,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>110072</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,14 +1225,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>110073</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,14 +1239,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>110074</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,9 +1258,8 @@
       <c r="C76" s="1" t="n">
         <v>110075</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,9 +1272,8 @@
       <c r="C77" s="1" t="n">
         <v>110076</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,9 +1286,8 @@
       <c r="C78" s="1" t="n">
         <v>110077</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,9 +1300,8 @@
       <c r="C79" s="1" t="n">
         <v>110078</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,9 +1314,8 @@
       <c r="C80" s="1" t="n">
         <v>110079</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,9 +1328,8 @@
       <c r="C81" s="1" t="n">
         <v>110080</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,9 +1342,8 @@
       <c r="C82" s="1" t="n">
         <v>110081</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,9 +1356,8 @@
       <c r="C83" s="1" t="n">
         <v>110082</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,9 +1370,8 @@
       <c r="C84" s="1" t="n">
         <v>110083</v>
       </c>
-      <c r="D84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,9 +1384,8 @@
       <c r="C85" s="1" t="n">
         <v>110084</v>
       </c>
-      <c r="D85" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,9 +1398,8 @@
       <c r="C86" s="1" t="n">
         <v>110085</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,9 +1412,8 @@
       <c r="C87" s="1" t="n">
         <v>110086</v>
       </c>
-      <c r="D87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,9 +1426,8 @@
       <c r="C88" s="1" t="n">
         <v>110087</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,9 +1440,8 @@
       <c r="C89" s="1" t="n">
         <v>110088</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,9 +1454,8 @@
       <c r="C90" s="1" t="n">
         <v>110089</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,14 +1463,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>110090</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,14 +1477,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>110091</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,14 +1491,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>110092</v>
       </c>
-      <c r="D93" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,14 +1505,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>110093</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,14 +1519,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>110094</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,14 +1533,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>110095</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D96" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,14 +1547,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>110096</v>
       </c>
-      <c r="D97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,14 +1561,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>110097</v>
       </c>
-      <c r="D98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,14 +1575,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>110098</v>
       </c>
-      <c r="D99" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,14 +1589,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>110099</v>
       </c>
-      <c r="D100" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,14 +1603,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>110100</v>
       </c>
-      <c r="D101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,14 +1617,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>110101</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,9 +1636,8 @@
       <c r="C103" s="1" t="n">
         <v>110102</v>
       </c>
-      <c r="D103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,9 +1650,8 @@
       <c r="C104" s="1" t="n">
         <v>110103</v>
       </c>
-      <c r="D104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D104" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,9 +1664,8 @@
       <c r="C105" s="1" t="n">
         <v>110104</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,9 +1678,8 @@
       <c r="C106" s="1" t="n">
         <v>110105</v>
       </c>
-      <c r="D106" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D106" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,9 +1692,8 @@
       <c r="C107" s="1" t="n">
         <v>110106</v>
       </c>
-      <c r="D107" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,9 +1706,8 @@
       <c r="C108" s="1" t="n">
         <v>110107</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D108" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,9 +1720,8 @@
       <c r="C109" s="1" t="n">
         <v>110108</v>
       </c>
-      <c r="D109" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,9 +1734,8 @@
       <c r="C110" s="1" t="n">
         <v>110109</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D110" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,9 +1748,8 @@
       <c r="C111" s="1" t="n">
         <v>110110</v>
       </c>
-      <c r="D111" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,9 +1762,8 @@
       <c r="C112" s="1" t="n">
         <v>110111</v>
       </c>
-      <c r="D112" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D112" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,9 +1776,8 @@
       <c r="C113" s="1" t="n">
         <v>110112</v>
       </c>
-      <c r="D113" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,9 +1790,8 @@
       <c r="C114" s="1" t="n">
         <v>110113</v>
       </c>
-      <c r="D114" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D114" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,9 +1804,8 @@
       <c r="C115" s="1" t="n">
         <v>110114</v>
       </c>
-      <c r="D115" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,9 +1818,8 @@
       <c r="C116" s="1" t="n">
         <v>110115</v>
       </c>
-      <c r="D116" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D116" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,9 +1832,8 @@
       <c r="C117" s="1" t="n">
         <v>110116</v>
       </c>
-      <c r="D117" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,9 +1846,8 @@
       <c r="C118" s="1" t="n">
         <v>110117</v>
       </c>
-      <c r="D118" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,9 +1860,8 @@
       <c r="C119" s="1" t="n">
         <v>110118</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,9 +1874,8 @@
       <c r="C120" s="1" t="n">
         <v>110119</v>
       </c>
-      <c r="D120" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,9 +1888,8 @@
       <c r="C121" s="1" t="n">
         <v>110120</v>
       </c>
-      <c r="D121" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,9 +1902,8 @@
       <c r="C122" s="1" t="n">
         <v>110121</v>
       </c>
-      <c r="D122" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D122" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,9 +1916,8 @@
       <c r="C123" s="1" t="n">
         <v>110122</v>
       </c>
-      <c r="D123" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,9 +1930,8 @@
       <c r="C124" s="1" t="n">
         <v>110123</v>
       </c>
-      <c r="D124" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,9 +1944,8 @@
       <c r="C125" s="1" t="n">
         <v>110124</v>
       </c>
-      <c r="D125" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,9 +1958,8 @@
       <c r="C126" s="1" t="n">
         <v>110125</v>
       </c>
-      <c r="D126" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D126" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,9 +1972,8 @@
       <c r="C127" s="1" t="n">
         <v>110126</v>
       </c>
-      <c r="D127" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,9 +1986,8 @@
       <c r="C128" s="1" t="n">
         <v>110127</v>
       </c>
-      <c r="D128" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D128" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,9 +2000,8 @@
       <c r="C129" s="1" t="n">
         <v>110128</v>
       </c>
-      <c r="D129" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,9 +2014,8 @@
       <c r="C130" s="1" t="n">
         <v>110129</v>
       </c>
-      <c r="D130" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D130" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,9 +2028,8 @@
       <c r="C131" s="1" t="n">
         <v>110130</v>
       </c>
-      <c r="D131" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,9 +2042,8 @@
       <c r="C132" s="1" t="n">
         <v>110131</v>
       </c>
-      <c r="D132" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D132" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
